--- a/DaySale_2025-05-28_11-57.xlsx
+++ b/DaySale_2025-05-28_11-57.xlsx
@@ -134,19 +134,52 @@
     <t>42.5000</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
     <t>50.0000</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
   </si>
   <si>
     <t>Wednesday, 28 May, 2025 11:57 AM</t>
@@ -1060,53 +1093,152 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>372.87</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>28</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
         <v>46</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>47</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>51</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>46</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>28</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>46</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>509.87</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>57</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>58</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>59</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1160,10 +1292,25 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
